--- a/branches/update-code-systems/StructureDefinition-hiv-organization.xlsx
+++ b/branches/update-code-systems/StructureDefinition-hiv-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="505">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T09:53:38+00:00</t>
+    <t>2023-03-14T11:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -766,6 +766,9 @@
   </si>
   <si>
     <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Organization identifier</t>
   </si>
   <si>
     <t>Coding.display</t>
@@ -4719,7 +4722,7 @@
         <v>77</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>77</v>
@@ -4758,7 +4761,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4773,10 +4776,10 @@
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4787,10 +4790,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4813,19 +4816,19 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4874,7 +4877,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4889,10 +4892,10 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4903,10 +4906,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4932,16 +4935,16 @@
         <v>160</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4990,7 +4993,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5005,10 +5008,10 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -5019,10 +5022,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5048,29 +5051,29 @@
         <v>100</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>77</v>
@@ -5106,7 +5109,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5121,13 +5124,13 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5135,10 +5138,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5164,13 +5167,13 @@
         <v>160</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5184,7 +5187,7 @@
         <v>77</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>77</v>
@@ -5220,7 +5223,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5235,13 +5238,13 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5249,10 +5252,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5275,13 +5278,13 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5332,7 +5335,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5347,13 +5350,13 @@
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5361,10 +5364,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5387,16 +5390,16 @@
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5446,7 +5449,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5461,13 +5464,13 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5475,10 +5478,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5501,70 +5504,70 @@
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="P32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q32" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="P32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q32" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="R32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5579,24 +5582,24 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5622,16 +5625,16 @@
         <v>185</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5656,13 +5659,13 @@
         <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>77</v>
@@ -5680,7 +5683,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5695,24 +5698,24 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>164</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5738,16 +5741,16 @@
         <v>160</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5796,7 +5799,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5811,13 +5814,13 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5825,10 +5828,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5854,16 +5857,16 @@
         <v>160</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5912,7 +5915,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5930,7 +5933,7 @@
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5941,10 +5944,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5967,19 +5970,19 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -6028,7 +6031,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6037,19 +6040,19 @@
         <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6057,10 +6060,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6083,19 +6086,19 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -6144,7 +6147,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6153,19 +6156,19 @@
         <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6173,10 +6176,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6285,10 +6288,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6399,10 +6402,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6428,16 +6431,16 @@
         <v>106</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6450,7 +6453,7 @@
         <v>77</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>77</v>
@@ -6465,10 +6468,10 @@
         <v>178</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
@@ -6486,7 +6489,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6501,13 +6504,13 @@
         <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6515,10 +6518,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6544,13 +6547,13 @@
         <v>106</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6564,7 +6567,7 @@
         <v>77</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>77</v>
@@ -6579,10 +6582,10 @@
         <v>178</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>77</v>
@@ -6600,7 +6603,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6615,10 +6618,10 @@
         <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -6629,10 +6632,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6658,16 +6661,16 @@
         <v>160</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6680,7 +6683,7 @@
         <v>77</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>77</v>
@@ -6716,7 +6719,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6731,10 +6734,10 @@
         <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6745,10 +6748,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6774,10 +6777,10 @@
         <v>160</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6792,7 +6795,7 @@
         <v>77</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>77</v>
@@ -6828,7 +6831,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6843,13 +6846,13 @@
         <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6857,14 +6860,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6886,10 +6889,10 @@
         <v>160</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6904,7 +6907,7 @@
         <v>77</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>77</v>
@@ -6940,7 +6943,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6955,13 +6958,13 @@
         <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -6969,14 +6972,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6998,13 +7001,13 @@
         <v>160</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7018,7 +7021,7 @@
         <v>77</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>77</v>
@@ -7054,7 +7057,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7069,10 +7072,10 @@
         <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
@@ -7083,14 +7086,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7112,10 +7115,10 @@
         <v>160</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7166,7 +7169,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7181,13 +7184,13 @@
         <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7195,14 +7198,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7224,10 +7227,10 @@
         <v>160</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7242,7 +7245,7 @@
         <v>77</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>77</v>
@@ -7278,7 +7281,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7293,13 +7296,13 @@
         <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7307,10 +7310,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7336,13 +7339,13 @@
         <v>160</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7392,7 +7395,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7407,13 +7410,13 @@
         <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7421,10 +7424,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7447,17 +7450,17 @@
         <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7470,7 +7473,7 @@
         <v>77</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>77</v>
@@ -7506,7 +7509,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7521,13 +7524,13 @@
         <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7535,10 +7538,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7561,17 +7564,17 @@
         <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7620,7 +7623,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7635,10 +7638,10 @@
         <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>164</v>
@@ -7649,10 +7652,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7675,19 +7678,19 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7736,7 +7739,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7754,7 +7757,7 @@
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -7765,10 +7768,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7877,10 +7880,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7991,14 +7994,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8020,10 +8023,10 @@
         <v>132</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>135</v>
@@ -8078,7 +8081,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8107,10 +8110,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8136,14 +8139,14 @@
         <v>185</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8171,10 +8174,10 @@
         <v>190</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -8192,7 +8195,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8210,7 +8213,7 @@
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -8221,10 +8224,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8247,17 +8250,17 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8306,7 +8309,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8321,10 +8324,10 @@
         <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -8335,10 +8338,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8361,17 +8364,17 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8420,7 +8423,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8435,10 +8438,10 @@
         <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8449,10 +8452,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8475,17 +8478,17 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8534,7 +8537,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8549,10 +8552,10 @@
         <v>98</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8563,10 +8566,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8589,17 +8592,17 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8648,7 +8651,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>

--- a/branches/update-code-systems/StructureDefinition-hiv-organization.xlsx
+++ b/branches/update-code-systems/StructureDefinition-hiv-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T11:49:46+00:00</t>
+    <t>2023-03-24T12:30:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
